--- a/cambridge results/cambridge results (Autosaved).xlsx
+++ b/cambridge results/cambridge results (Autosaved).xlsx
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,9 +650,45 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
+        <v>19</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cambridge results/cambridge results (Autosaved).xlsx
+++ b/cambridge results/cambridge results (Autosaved).xlsx
@@ -664,7 +664,9 @@
       <c r="C18" s="13">
         <v>19</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>

--- a/cambridge results/cambridge results (Autosaved).xlsx
+++ b/cambridge results/cambridge results (Autosaved).xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,10 +669,18 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
+      <c r="A19" s="7">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="13">
+        <v>25</v>
+      </c>
+      <c r="D19" s="14">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>

--- a/cambridge results/cambridge results (Autosaved).xlsx
+++ b/cambridge results/cambridge results (Autosaved).xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,16 +683,32 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
+      <c r="A20" s="7">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3</v>
+      </c>
+      <c r="C20" s="13">
+        <v>29</v>
+      </c>
+      <c r="D20" s="14">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
+      <c r="A21" s="7">
+        <v>6</v>
+      </c>
+      <c r="B21" s="8">
+        <v>4</v>
+      </c>
+      <c r="C21" s="13">
+        <v>25</v>
+      </c>
+      <c r="D21" s="14">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>

--- a/cambridge results/cambridge results (Autosaved).xlsx
+++ b/cambridge results/cambridge results (Autosaved).xlsx
@@ -112,12 +112,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -144,8 +140,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -428,293 +426,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>3</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="5">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>24</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <v>26</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
         <v>28</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
         <v>34</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="9">
         <v>27</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="9">
         <v>23</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9">
         <v>25</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8">
-        <v>4</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9">
         <v>32</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>5</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="9">
         <v>26</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="9">
         <v>25</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>5</v>
       </c>
-      <c r="B15" s="8">
-        <v>3</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9">
         <v>28</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>5</v>
       </c>
-      <c r="B16" s="8">
-        <v>4</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" s="9">
         <v>20</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>6</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="9">
         <v>19</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>6</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="4">
         <v>2</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="9">
         <v>25</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>6</v>
       </c>
-      <c r="B20" s="8">
-        <v>3</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9">
         <v>29</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="10">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>6</v>
       </c>
-      <c r="B21" s="8">
-        <v>4</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9">
         <v>25</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="10">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>31</v>
+      </c>
+      <c r="D23" s="10">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cambridge results/cambridge results (Autosaved).xlsx
+++ b/cambridge results/cambridge results (Autosaved).xlsx
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,6 +721,20 @@
         <v>22</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>31</v>
+      </c>
+      <c r="D24" s="10">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/cambridge results/cambridge results (Autosaved).xlsx
+++ b/cambridge results/cambridge results (Autosaved).xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cambridge results/cambridge results (Autosaved).xlsx
+++ b/cambridge results/cambridge results (Autosaved).xlsx
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,6 +735,31 @@
         <v>20</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>7</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>7</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9">
+        <v>29</v>
+      </c>
+      <c r="D26" s="10">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/cambridge results/cambridge results (Autosaved).xlsx
+++ b/cambridge results/cambridge results (Autosaved).xlsx
@@ -40,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +51,13 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -144,6 +151,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -426,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,6 +755,9 @@
       <c r="C25" s="9">
         <v>26</v>
       </c>
+      <c r="D25" s="13">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -758,6 +771,20 @@
       </c>
       <c r="D26" s="10">
         <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9">
+        <v>27</v>
+      </c>
+      <c r="D28" s="10">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/cambridge results/cambridge results (Autosaved).xlsx
+++ b/cambridge results/cambridge results (Autosaved).xlsx
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,6 +717,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>7</v>
@@ -773,6 +778,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>8</v>
@@ -785,6 +795,338 @@
       </c>
       <c r="D28" s="10">
         <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9">
+        <v>30</v>
+      </c>
+      <c r="D29" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>8</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4</v>
+      </c>
+      <c r="C31" s="9">
+        <v>23</v>
+      </c>
+      <c r="D31" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>9</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>9</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="9">
+        <v>32</v>
+      </c>
+      <c r="D34" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>9</v>
+      </c>
+      <c r="B35" s="4">
+        <v>3</v>
+      </c>
+      <c r="C35" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>9</v>
+      </c>
+      <c r="B36" s="4">
+        <v>4</v>
+      </c>
+      <c r="C36" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>10</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>10</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9">
+        <v>25</v>
+      </c>
+      <c r="D39" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>10</v>
+      </c>
+      <c r="B40" s="4">
+        <v>3</v>
+      </c>
+      <c r="C40" s="9">
+        <v>30</v>
+      </c>
+      <c r="D40" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>10</v>
+      </c>
+      <c r="B41" s="4">
+        <v>4</v>
+      </c>
+      <c r="C41" s="9">
+        <v>28</v>
+      </c>
+      <c r="D41" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>11</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="9">
+        <v>33</v>
+      </c>
+      <c r="D43" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>11</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2</v>
+      </c>
+      <c r="C44" s="9">
+        <v>33</v>
+      </c>
+      <c r="D44" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>11</v>
+      </c>
+      <c r="B45" s="4">
+        <v>3</v>
+      </c>
+      <c r="C45" s="9">
+        <v>33</v>
+      </c>
+      <c r="D45" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>11</v>
+      </c>
+      <c r="B46" s="4">
+        <v>4</v>
+      </c>
+      <c r="C46" s="9">
+        <v>24</v>
+      </c>
+      <c r="D46" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>12</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="9">
+        <v>28</v>
+      </c>
+      <c r="D48" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2</v>
+      </c>
+      <c r="C49" s="9">
+        <v>29</v>
+      </c>
+      <c r="D49" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>12</v>
+      </c>
+      <c r="B50" s="4">
+        <v>3</v>
+      </c>
+      <c r="C50" s="9">
+        <v>29</v>
+      </c>
+      <c r="D50" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>12</v>
+      </c>
+      <c r="B51" s="4">
+        <v>4</v>
+      </c>
+      <c r="C51" s="9">
+        <v>30</v>
+      </c>
+      <c r="D51" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>13</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="9">
+        <v>32</v>
+      </c>
+      <c r="D53" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>13</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2</v>
+      </c>
+      <c r="C54" s="9">
+        <v>30</v>
+      </c>
+      <c r="D54" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>13</v>
+      </c>
+      <c r="B55" s="4">
+        <v>3</v>
+      </c>
+      <c r="C55" s="9">
+        <v>30</v>
+      </c>
+      <c r="D55" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>13</v>
+      </c>
+      <c r="B56" s="4">
+        <v>4</v>
+      </c>
+      <c r="C56" s="9">
+        <v>32</v>
+      </c>
+      <c r="D56" s="10">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/cambridge results/cambridge results (Autosaved).xlsx
+++ b/cambridge results/cambridge results (Autosaved).xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -436,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,6 +1130,87 @@
         <v>36</v>
       </c>
     </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>14</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="9">
+        <v>32</v>
+      </c>
+      <c r="D58" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>14</v>
+      </c>
+      <c r="B59" s="4">
+        <v>2</v>
+      </c>
+      <c r="C59" s="9">
+        <v>29</v>
+      </c>
+      <c r="D59" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>14</v>
+      </c>
+      <c r="B60" s="4">
+        <v>3</v>
+      </c>
+      <c r="C60" s="9">
+        <v>29</v>
+      </c>
+      <c r="D60" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>14</v>
+      </c>
+      <c r="B61" s="4">
+        <v>4</v>
+      </c>
+      <c r="C61" s="9">
+        <v>27</v>
+      </c>
+      <c r="D61" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="9">
+        <f>AVERAGE(C28:C61)</f>
+        <v>29.035714285714285</v>
+      </c>
+      <c r="D62" s="10">
+        <f>AVERAGE(D28:D61)</f>
+        <v>26.739130434782609</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="9">
+        <f>AVERAGE(C53:C61)</f>
+        <v>30.125</v>
+      </c>
+      <c r="D63" s="10">
+        <f>AVERAGE(D53:D61)</f>
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
